--- a/sks-kobe-t/pdf/report12.xlsx
+++ b/sks-kobe-t/pdf/report12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Sks-linkstation\共有\警備報告書\郵船\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D42C7-B7D8-42C6-A3A6-BCE0E7A1BADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H30.8" sheetId="4" r:id="rId1"/>
@@ -152,62 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　自　　　　　年　　　　月　　　　日　　　　曜日　　　08時00分</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　至　　　　　年　　　　月　　　　日　　　　曜日　　　08時00分</t>
-    <rPh sb="3" eb="4">
-      <t>イタル</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PSカードの全てについて有効性の確認を実施</t>
     <rPh sb="6" eb="7">
       <t>スベ</t>
@@ -274,6 +219,62 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　自　　　　　年　　　　月　　　　日　　　　曜日　　　  時    分</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　至　　　　　年　　　　月　　　　日　　　　曜日　　　  時    分</t>
+    <rPh sb="3" eb="4">
+      <t>イタル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -457,24 +458,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,8 +513,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,14 +528,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,6 +624,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -672,6 +676,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,18 +885,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
@@ -911,7 +932,7 @@
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -919,7 +940,7 @@
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -934,123 +955,123 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
@@ -1061,6 +1082,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1075,11 +1101,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.57999999999999996" right="0.15748031496062992" top="0.74803149606299213" bottom="0.17" header="0.31496062992125984" footer="0.31496062992125984"/>
